--- a/outputs-HGR-r202/f__Anaerovoracaceae.xlsx
+++ b/outputs-HGR-r202/f__Anaerovoracaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,98 +609,48 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62429.fa</t>
+          <t>even_MAG-GUT85141.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.002619958763339608</v>
+        <v>5.800742418883312e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003434491379376533</v>
+        <v>6.140605496320933e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>3.635284237972716e-06</v>
+        <v>0.9299408099109876</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0002013421496421005</v>
+        <v>3.685596956909173e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0005181572942222455</v>
+        <v>2.807842183257635e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>3.892720244793895e-06</v>
+        <v>6.992835248838365e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.055000202004867e-05</v>
+        <v>0.0007596992164805088</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001862407500144862</v>
+        <v>0.06905944253938895</v>
       </c>
       <c r="J4" t="n">
-        <v>6.59033445578274e-06</v>
+        <v>7.376929842422999e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9960861835638853</v>
+        <v>4.386337558024993e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9960861835638853</v>
+        <v>0.9299408099109876</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>g__VUNA01</t>
+          <t>g__CAG-145</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
-        <is>
-          <t>g__VUNA01</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85141.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5.800742418883312e-05</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6.140605496320933e-06</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9299408099109876</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.685596956909173e-06</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.807842183257635e-05</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6.992835248838365e-05</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0007596992164805088</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.06905944253938895</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7.376929842422999e-05</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.386337558024993e-07</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.9299408099109876</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>g__CAG-145</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
         <is>
           <t>g__CAG-145</t>
         </is>

--- a/outputs-HGR-r202/f__Anaerovoracaceae.xlsx
+++ b/outputs-HGR-r202/f__Anaerovoracaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -545,6 +550,11 @@
           <t>g__UMGS973</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>g__UMGS973(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -590,6 +600,11 @@
           <t>g__UBA1191</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>g__UBA1191</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -635,6 +650,11 @@
           <t>g__CAG-238</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>g__CAG-238(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -680,6 +700,11 @@
           <t>g__CAG-238</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>g__CAG-238(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -725,6 +750,11 @@
           <t>g__CAG-145</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>g__CAG-145</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -770,6 +800,11 @@
           <t>g__CAG-238</t>
         </is>
       </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>g__CAG-238(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -815,6 +850,11 @@
           <t>g__CAG-145</t>
         </is>
       </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>g__CAG-145(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -860,6 +900,11 @@
           <t>g__CAG-238</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>g__CAG-238(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -905,6 +950,11 @@
           <t>g__CAG-145</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>g__CAG-145</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -950,6 +1000,11 @@
           <t>g__CAG-238</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>g__CAG-238(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -995,6 +1050,11 @@
           <t>g__UBA1191</t>
         </is>
       </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>g__UBA1191(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1040,6 +1100,11 @@
           <t>g__UBA1191</t>
         </is>
       </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>g__UBA1191(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1085,6 +1150,11 @@
           <t>g__UBA1191</t>
         </is>
       </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>g__UBA1191(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1130,6 +1200,11 @@
           <t>g__UBA1191</t>
         </is>
       </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>g__UBA1191(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1175,6 +1250,11 @@
           <t>g__CAG-238</t>
         </is>
       </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>g__CAG-238</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1220,6 +1300,11 @@
           <t>g__CAG-145</t>
         </is>
       </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>g__CAG-145(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1265,6 +1350,11 @@
           <t>g__CAG-145</t>
         </is>
       </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>g__CAG-145(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1310,6 +1400,11 @@
           <t>g__CAG-145</t>
         </is>
       </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>g__CAG-145</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1353,6 +1448,11 @@
       <c r="M20" t="inlineStr">
         <is>
           <t>g__UBA1191</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>g__UBA1191(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/f__Anaerovoracaceae.xlsx
+++ b/outputs-HGR-r202/f__Anaerovoracaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,141 +609,141 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15916.fa</t>
+          <t>even_MAG-GUT23816.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005997312122508332</v>
+        <v>5.533916027723437e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>4.613707467912393e-06</v>
+        <v>3.104820630656486e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08885529172269779</v>
+        <v>0.872190934127487</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7326018519447635</v>
+        <v>5.738311558781122e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>8.561125856525069e-05</v>
+        <v>2.893509219672595e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>5.091334451250646e-05</v>
+        <v>2.790604558548526e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>1.013190325213117e-05</v>
+        <v>0.0003096967050117314</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1723888219404892</v>
+        <v>0.127160529859973</v>
       </c>
       <c r="J4" t="n">
-        <v>5.449475808257467e-06</v>
+        <v>0.0002428252237633564</v>
       </c>
       <c r="K4" t="n">
-        <v>2.579935366741527e-09</v>
+        <v>1.060945430634703e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7326018519447635</v>
+        <v>0.872190934127487</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>g__CAG-238</t>
+          <t>g__CAG-145</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>g__CAG-238(reject)</t>
+          <t>g__CAG-145</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1728.fa</t>
+          <t>even_MAG-GUT42774.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006471267437683528</v>
+        <v>1.270185970195354e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>1.991824821705356e-05</v>
+        <v>6.734821044781256e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08701697643264737</v>
+        <v>0.7821487227842633</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5410863826156543</v>
+        <v>1.250359103842499e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>4.306442368936877e-05</v>
+        <v>3.716062749789354e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>4.142288177395066e-05</v>
+        <v>1.681114990465452e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>4.670535856020156e-05</v>
+        <v>0.0001139838888538151</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3652556545331513</v>
+        <v>0.2177011924401093</v>
       </c>
       <c r="J5" t="n">
-        <v>1.859298029493968e-05</v>
+        <v>8.630471860477391e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>1.508832797371809e-08</v>
+        <v>8.492602304014209e-08</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5410863826156543</v>
+        <v>0.7821487227842633</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>g__CAG-238</t>
+          <t>g__CAG-145</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>g__CAG-238(reject)</t>
+          <t>g__CAG-145</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23816.fa</t>
+          <t>even_MAG-GUT85090.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.533916027723437e-05</v>
+        <v>0.01626158859936494</v>
       </c>
       <c r="C6" t="n">
-        <v>3.104820630656486e-06</v>
+        <v>3.550383262903174e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>0.872190934127487</v>
+        <v>0.4305076691357932</v>
       </c>
       <c r="E6" t="n">
-        <v>5.738311558781122e-06</v>
+        <v>0.02245921454054978</v>
       </c>
       <c r="F6" t="n">
-        <v>2.893509219672595e-05</v>
+        <v>1.500853691870586e-06</v>
       </c>
       <c r="G6" t="n">
-        <v>2.790604558548526e-06</v>
+        <v>0.001182443900808378</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0003096967050117314</v>
+        <v>0.008601488162846621</v>
       </c>
       <c r="I6" t="n">
-        <v>0.127160529859973</v>
+        <v>0.2714519303794533</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0002428252237633564</v>
+        <v>0.2495299615840337</v>
       </c>
       <c r="K6" t="n">
-        <v>1.060945430634703e-07</v>
+        <v>6.524601951251143e-07</v>
       </c>
       <c r="L6" t="n">
-        <v>0.872190934127487</v>
+        <v>0.4305076691357932</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -752,707 +752,57 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>g__CAG-145</t>
+          <t>g__CAG-145(reject)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26088.fa</t>
+          <t>even_MAG-GUT85141.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001410545073460021</v>
+        <v>5.800742418883312e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>3.264536146377104e-06</v>
+        <v>6.140605496320933e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005258087362068544</v>
+        <v>0.9299408099109876</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5496047483075629</v>
+        <v>3.685596956909173e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>2.310590515638373e-05</v>
+        <v>2.807842183257635e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>5.492437925905094e-06</v>
+        <v>6.992835248838365e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>1.393580227474861e-06</v>
+        <v>0.0007596992164805088</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4436797375395334</v>
+        <v>0.06905944253938895</v>
       </c>
       <c r="J7" t="n">
-        <v>1.361374797978942e-05</v>
+        <v>7.376929842422999e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>1.150993923084981e-08</v>
+        <v>4.386337558024993e-07</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5496047483075629</v>
+        <v>0.9299408099109876</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>g__CAG-238</t>
+          <t>g__CAG-145</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>g__CAG-238(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT28366.fa</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.01188582651465179</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.258316940010778e-06</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.6220118741443754</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.02545442268655178</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5.454694495331612e-06</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.002504575667220644</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.005463545670389159</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.2884319692950693</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0442395655908325</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.074194740913671e-07</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.6220118741443754</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
           <t>g__CAG-145</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>g__CAG-145(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT38358.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.004550948574836914</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.650978635577193e-06</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.02614635720913547</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.5867038221950167</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5.633060121957973e-05</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6.756346554321891e-05</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.252307973718309e-06</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.3824693760162441</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6.969989682298815e-07</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.652426612100017e-09</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.5867038221950167</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>g__CAG-238</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>g__CAG-238(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT42774.fa</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1.270185970195354e-05</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6.734821044781256e-07</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.7821487227842633</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.250359103842499e-06</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.716062749789354e-06</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.681114990465452e-05</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0001139838888538151</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.2177011924401093</v>
-      </c>
-      <c r="J10" t="n">
-        <v>8.630471860477391e-07</v>
-      </c>
-      <c r="K10" t="n">
-        <v>8.492602304014209e-08</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.7821487227842633</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>g__CAG-145</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>g__CAG-145</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT4289.fa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.002212455383916571</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.335328735353139e-06</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.01348592199177074</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.5520823300466988</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3.897102424299763e-05</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6.967264922687708e-06</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.888190083765105e-06</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.4321640564290269</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.064500372250702e-06</v>
-      </c>
-      <c r="K11" t="n">
-        <v>9.840229817905419e-09</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.5520823300466988</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>g__CAG-238</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>g__CAG-238(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT51918.fa</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.0003026708978810259</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.587135574380133e-05</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.003455004295994735</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.4791052549132125</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.349753859491027e-05</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4.335358301174636e-05</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4.119630459302497e-05</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.5169893359936466</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.367000232571747e-05</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.451149959101506e-07</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.5169893359936466</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>g__UBA1191</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>g__UBA1191(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT51929.fa</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.001436804394289464</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.649708731306551e-05</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.0176856505434178</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.4196567287440637</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.259230977422392e-05</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.782048280955095e-05</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.162782536445478e-05</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.5611060197643399</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.617719864051751e-05</v>
-      </c>
-      <c r="K13" t="n">
-        <v>8.164998726388759e-08</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.5611060197643399</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>g__UBA1191</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>g__UBA1191(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT58957.fa</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.003783286525463473</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.609335950556967e-06</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.1041724940572837</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.4404922120313182</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.0002937250234744194</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.0002825030642263123</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.716863798392965e-06</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.4509674437670451</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.007342539614204e-06</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.988900409790807e-09</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.4509674437670451</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>g__UBA1191</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>g__UBA1191(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66916.fa</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.002076387034062086</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.180174595587069e-06</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.1000120288749409</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.3159430820054314</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9.879088269721619e-05</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.0007394415299205771</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.674827561105072e-06</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.5811237746430017</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6.189556566784044e-07</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.107213267270064e-08</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.5811237746430017</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>g__UBA1191</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>g__UBA1191(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT72317.fa</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.003130659383091738</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.228288450307866e-06</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.009977532438048293</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.7778831292826278</v>
-      </c>
-      <c r="F16" t="n">
-        <v>6.763538793005398e-05</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.691036269993586e-05</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4.137697677462982e-06</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.2088962081632648</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.05465940714498e-05</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.240213794108087e-08</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.7778831292826278</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>g__CAG-238</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>g__CAG-238</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83851.fa</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.0290931157854847</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.65088064631865e-06</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.3907200775655597</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.1507891427183984</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0002034639893434053</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.009358957226042738</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.01911645273427694</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.07825177228723514</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.3224539214115122</v>
-      </c>
-      <c r="K17" t="n">
-        <v>9.445401500329445e-06</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.3907200775655597</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>g__CAG-145</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>g__CAG-145(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85090.fa</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.01626158859936494</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.550383262903174e-06</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.4305076691357932</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.02245921454054978</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.500853691870586e-06</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.001182443900808378</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.008601488162846621</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.2714519303794533</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.2495299615840337</v>
-      </c>
-      <c r="K18" t="n">
-        <v>6.524601951251143e-07</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.4305076691357932</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>g__CAG-145</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>g__CAG-145(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85141.fa</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>5.800742418883312e-05</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6.140605496320933e-06</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.9299408099109876</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3.685596956909173e-06</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.807842183257635e-05</v>
-      </c>
-      <c r="G19" t="n">
-        <v>6.992835248838365e-05</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.0007596992164805088</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.06905944253938895</v>
-      </c>
-      <c r="J19" t="n">
-        <v>7.376929842422999e-05</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.386337558024993e-07</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.9299408099109876</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>g__CAG-145</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>g__CAG-145</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86091.fa</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.02149284542881102</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4.130022065467484e-06</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.2956138749483755</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.07994809349268522</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.423476873482121e-05</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.003596150463604402</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.02573659500288605</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.3436965377906927</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.2298940410046796</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.497077465362236e-06</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.3436965377906927</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>g__UBA1191</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>g__UBA1191(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/f__Anaerovoracaceae.xlsx
+++ b/outputs-HGR-r202/f__Anaerovoracaceae.xlsx
@@ -652,7 +652,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>g__VUNA01</t>
+          <t>g__VUNA01(reject)</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>g__CAG-238</t>
+          <t>g__CAG-238(reject)</t>
         </is>
       </c>
     </row>
